--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaa</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 0,20</t>
+          <t>R$ 2.222,22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -470,60 +470,6 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-05-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>wordpress</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>R$ 0,50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>wordpress</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>R$ 200,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="52.6640625" customWidth="1" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -475,7 +478,89 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>imobilibadsf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lowcode</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R$ 2.222,22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The Led</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>wordpress</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R$ 5.000,00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Regis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lowcode</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R$ 200,00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -559,6 +559,33 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Carrefour</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>seguranca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R$ 150,00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -586,6 +586,141 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>yasmin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>agenteIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R$ 555,55</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>yasmin</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>manutencao</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>R$ 3.000,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Açaí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lowcode</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R$ 5.000,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>seguranca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R$ 0,20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>imobilibadsf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>manutencao</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>R$ 200,00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -721,6 +721,77 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tre</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>manutencao</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>R$ 50,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wordpress</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>R$ 50,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tre</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>manutencao</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R$ 50,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,17 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="52.6640625" customWidth="1" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -454,61 +451,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>tre</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lowcode</t>
+          <t>manutencao</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 2.222,22</t>
+          <t>R$ 50,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
+          <t>22/05/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>imobilibadsf</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lowcode</t>
+          <t>wordpress</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$ 2.222,22</t>
+          <t>R$ 50,00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
+          <t>22/05/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Led</t>
+          <t>Scompany</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,78 +505,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$ 5.000,00</t>
+          <t>R$ 2.000,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Regis</t>
+          <t>Carrefour</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lowcode</t>
+          <t>manutencao</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$ 200,00</t>
+          <t>R$ 3.000,00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-05-30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carrefour</t>
+          <t>Reginaldo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>seguranca</t>
+          <t>wordpress</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$ 150,00</t>
+          <t>R$ 2.000,00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-06-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>yasmin</t>
+          <t>Carrefour</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -599,201 +586,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$ 555,55</t>
+          <t>R$ 6.000,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>yasmin</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>manutencao</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>R$ 3.000,00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-05-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Açaí</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>lowcode</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>R$ 5.000,00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-05-17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>seguranca</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>R$ 0,20</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-05-16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-05-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>imobilibadsf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>manutencao</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>R$ 200,00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-05-31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-11-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>tre</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>manutencao</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>R$ 50,00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>wordpress</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>R$ 50,00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>tre</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>manutencao</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>R$ 50,00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-05-22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2025-05-22</t>
+          <t>2025-06-28</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,33 +573,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Carrefour</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>agenteIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R$ 6.000,00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-04-28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-06-28</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FATURA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>agenteIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R$ 2.000,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Data_entrega</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>tempo_servico</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,108 +500,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scompany</t>
+          <t>Sinclair</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>wordpress</t>
+          <t>manutencao</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$ 2.000,00</t>
+          <t>R$ 40,50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Carrefour</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>manutencao</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>R$ 3.000,00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Reginaldo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>wordpress</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>R$ 2.000,00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-06-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FATURA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>agenteIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R$ 2.000,00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4:03</t>
         </is>
       </c>
     </row>

--- a/faturamento.xlsx
+++ b/faturamento.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,12 +505,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>manutencao</t>
+          <t>suporte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$ 40,50</t>
+          <t>R$ 59,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4:03</t>
+          <t>2:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sinclair</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>suporte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R$ 42,00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2:06</t>
         </is>
       </c>
     </row>
